--- a/src/main/resources/testdata/Check_Edit_LeadInfo_And_RegulatoryCheck_Sequence_Tab.xlsx
+++ b/src/main/resources/testdata/Check_Edit_LeadInfo_And_RegulatoryCheck_Sequence_Tab.xlsx
@@ -129,6 +129,78 @@
     <t>accessionNoGS</t>
   </si>
   <si>
+    <t>TaEXPB23</t>
+  </si>
+  <si>
+    <t>AY260547.prot</t>
+  </si>
+  <si>
+    <t>Avena sativa</t>
+  </si>
+  <si>
+    <t>OurProteinsource</t>
+  </si>
+  <si>
+    <t>AAP</t>
+  </si>
+  <si>
+    <t>SELENIUM_PROTEIN</t>
+  </si>
+  <si>
+    <t>ssaa</t>
+  </si>
+  <si>
+    <t>Test descrition</t>
+  </si>
+  <si>
+    <t>plus</t>
+  </si>
+  <si>
+    <t>AANV</t>
+  </si>
+  <si>
+    <t>selenium_assession</t>
+  </si>
+  <si>
+    <t>CGCCCGGGCAGGTGTACTATCCACTTAGCACAATAAAGAGAGAAAAACAAGGTAAGTTTAGTGAGTGTTCAAATGGCAGAAAACAAAGAAGAAGATGTTAAGCTTGGAGCTAACAAATTCAGAGAAACACAGCCATTAGGAACAGCTGCTCAAACAGACAAAGATTACAAAGAACCACCACCAGCTCCTTTGTTTGAACCAGGG</t>
+  </si>
+  <si>
+    <t>Ensure all info is present in Lead Info and Regulatory Check Tabs</t>
+  </si>
+  <si>
+    <t>suggestedProjectName</t>
+  </si>
+  <si>
+    <t>lead_source</t>
+  </si>
+  <si>
+    <t>lead_type</t>
+  </si>
+  <si>
+    <t>lead_function</t>
+  </si>
+  <si>
+    <t>source_lead_function_info</t>
+  </si>
+  <si>
+    <t>PI0000817:Soybean Rust Tolerance - NT</t>
+  </si>
+  <si>
+    <t>Licensing</t>
+  </si>
+  <si>
+    <t>gene</t>
+  </si>
+  <si>
+    <t>test lead function</t>
+  </si>
+  <si>
+    <t>genie</t>
+  </si>
+  <si>
+    <t>AAAANNVV</t>
+  </si>
+  <si>
     <t>1 caagtgccac tggctactag tgcaagtatg gctcgggtct ctgccaatgc agttgcactt
        61 gttgcactcg tctccgttct tctcacgtat ggctgctgcg cccagtcgcc gctcaactac
       121 accggctcct tggccaaatc ctccaaggct agctggtcat ggctccctgc caaggccaca
@@ -143,80 +215,7 @@
       661 ccgacggggt actggacggc gatgcgccac tcgtggggcg ccatctggcg gatggactcc
       721 aggcgccggc tgcagggccc cttctctctc cgcatccgca gcgaatccgg caagacgctg
       781 gtggccaaac aagtcatccc ggccaactgg aggcccgaca cgaactaccg ttccaacgtc
-      841 cagttccgtt gattgctccg agcttccgat cgatcgacga agacgttgat taattcgg
-amakpgqndk lrhagiidiq  fqrvpcnhpg lnvnfqverg 181 snpnylavlv efanregtvv qmdlmesrng rptgywtamr hswgaiwrmd srrrlqgpfs 241 lrirsesgkt lvakqvipan wrpdtnyrsn vqfr</t>
-  </si>
-  <si>
-    <t>TaEXPB23</t>
-  </si>
-  <si>
-    <t>AY260547.prot</t>
-  </si>
-  <si>
-    <t>Avena sativa</t>
-  </si>
-  <si>
-    <t>OurProteinsource</t>
-  </si>
-  <si>
-    <t>AAP</t>
-  </si>
-  <si>
-    <t>SELENIUM_PROTEIN</t>
-  </si>
-  <si>
-    <t>ssaa</t>
-  </si>
-  <si>
-    <t>Test descrition</t>
-  </si>
-  <si>
-    <t>plus</t>
-  </si>
-  <si>
-    <t>AANV</t>
-  </si>
-  <si>
-    <t>selenium_assession</t>
-  </si>
-  <si>
-    <t>CGCCCGGGCAGGTGTACTATCCACTTAGCACAATAAAGAGAGAAAAACAAGGTAAGTTTAGTGAGTGTTCAAATGGCAGAAAACAAAGAAGAAGATGTTAAGCTTGGAGCTAACAAATTCAGAGAAACACAGCCATTAGGAACAGCTGCTCAAACAGACAAAGATTACAAAGAACCACCACCAGCTCCTTTGTTTGAACCAGGG</t>
-  </si>
-  <si>
-    <t>Ensure all info is present in Lead Info and Regulatory Check Tabs</t>
-  </si>
-  <si>
-    <t>suggestedProjectName</t>
-  </si>
-  <si>
-    <t>lead_source</t>
-  </si>
-  <si>
-    <t>lead_type</t>
-  </si>
-  <si>
-    <t>lead_function</t>
-  </si>
-  <si>
-    <t>source_lead_function_info</t>
-  </si>
-  <si>
-    <t>PI0000817:Soybean Rust Tolerance - NT</t>
-  </si>
-  <si>
-    <t>Licensing</t>
-  </si>
-  <si>
-    <t>gene</t>
-  </si>
-  <si>
-    <t>test lead function</t>
-  </si>
-  <si>
-    <t>genie</t>
-  </si>
-  <si>
-    <t>AAAANNVV</t>
+      841 cagttccgtt gattgctccg agcttccgat cgatcgacga agacgttgat taattcgg</t>
   </si>
 </sst>
 </file>
@@ -560,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +576,7 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42" customWidth="1"/>
+    <col min="12" max="12" width="56.42578125" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
@@ -674,30 +673,30 @@
         <v>36</v>
       </c>
       <c r="AB1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC1" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>53</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>54</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>55</v>
       </c>
       <c r="AG1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -727,67 +726,67 @@
         <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
       </c>
       <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
         <v>38</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>39</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" t="s">
         <v>41</v>
       </c>
-      <c r="R2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>42</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="U2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>44</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>45</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG2" t="s">
         <v>48</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
